--- a/src/main/resources/TestDataFile.xlsx
+++ b/src/main/resources/TestDataFile.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="5760"/>
+    <workbookView xWindow="0" yWindow="330" windowWidth="15090" windowHeight="5760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
   <oleSize ref="A1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -52,8 +52,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,7 +144,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -179,7 +179,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,23 +356,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -380,77 +380,77 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
